--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-528599.7640068828</v>
+        <v>-531195.2038790201</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>68.43349528241293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>311.5816625524184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>397.5711554479498</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.32992015273187</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>98.65611137359991</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>72.25791789379238</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>165.3799676284716</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.9024626654651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.0943823402093</v>
+        <v>186.0421243345531</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>52.90622424463363</v>
       </c>
       <c r="D8" t="n">
-        <v>121.0389903687758</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1894753224699</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>232.9664368138655</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.10799870228442</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.426533627750662e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>46.86766651429352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>108.524925799985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>148.6282353729479</v>
       </c>
       <c r="D25" t="n">
-        <v>53.68707741621039</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060473</v>
+        <v>118.8241514613406</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>260.7779582586294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3791,7 +3791,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002303</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4307,19 +4307,19 @@
         <v>1565.850280418409</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.725537708901</v>
+        <v>1196.887763477998</v>
       </c>
       <c r="D2" t="n">
-        <v>1496.725537708901</v>
+        <v>838.6220648712472</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>452.8338122730029</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>119.987098413552</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>304.708719694602</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.3764301283675</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C4" t="n">
-        <v>472.4402472004606</v>
+        <v>689.90341785788</v>
       </c>
       <c r="D4" t="n">
-        <v>472.4402472004606</v>
+        <v>539.7867784455442</v>
       </c>
       <c r="E4" t="n">
-        <v>324.5271536180675</v>
+        <v>391.8736848631511</v>
       </c>
       <c r="F4" t="n">
-        <v>177.6372061201571</v>
+        <v>391.8736848631511</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>223.8872201714297</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>124.2345824203186</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4516,22 +4516,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263848</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283675</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y4" t="n">
-        <v>641.3764301283675</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5363853637798</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>1011.380303111451</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>1011.380303111451</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059685</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.136225427902</v>
+        <v>1380.342820051862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476954</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.0080784229704</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229704</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106346</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282415</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1179.646094151227</v>
+        <v>681.743475855514</v>
       </c>
       <c r="X7" t="n">
-        <v>951.6565432532101</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.6565432532101</v>
+        <v>453.7539249574967</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168677</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.17958617321</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.8443805240842</v>
+        <v>917.6163259372726</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>748.6801430093657</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>598.5635035970299</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>450.6504100146368</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.274975395871</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.274975395871</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>863.285424497854</v>
+        <v>1320.057369911042</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.4928453543239</v>
+        <v>1099.264790767512</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5416,13 +5416,13 @@
         <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929399</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>282.869571492939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.2677182139842</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.708762187754</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.9161830442239</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935558</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656489</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D25" t="n">
         <v>612.4182386381636</v>
@@ -6133,43 +6133,43 @@
         <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6181,16 +6181,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075798</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>584.529540471266</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>437.6395929733557</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7491,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.454437538930023</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,25 +8295,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>280.1079373569276</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>296.8393964885946</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.304890293761673</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>48.59539778152894</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>118.6564717779753</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>18.61858572567994</v>
       </c>
       <c r="D25" t="n">
-        <v>94.92839560200196</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>46.69998683092828</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1158723.120068431</v>
+        <v>1158723.120068432</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26329,10 +26329,10 @@
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="I2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="I2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
@@ -26341,19 +26341,19 @@
         <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819055</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70378.67304475392</v>
+        <v>70378.6730447539</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810793</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26445,19 +26445,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756612</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985007</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1049008.58528462</v>
+        <v>-1049299.192449466</v>
       </c>
       <c r="C6" t="n">
-        <v>37174.52907394465</v>
+        <v>37174.52907394498</v>
       </c>
       <c r="D6" t="n">
-        <v>-122246.7409239466</v>
+        <v>-122246.7409239465</v>
       </c>
       <c r="E6" t="n">
-        <v>-173549.5470887669</v>
+        <v>-173584.2850142028</v>
       </c>
       <c r="F6" t="n">
-        <v>151862.9147185883</v>
+        <v>151828.1767931526</v>
       </c>
       <c r="G6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="H6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931526</v>
       </c>
       <c r="I6" t="n">
-        <v>151862.9147185883</v>
+        <v>151828.1767931524</v>
       </c>
       <c r="J6" t="n">
-        <v>-15742.26309139427</v>
+        <v>-15777.00101682979</v>
       </c>
       <c r="K6" t="n">
-        <v>151862.9147185881</v>
+        <v>151828.1767931524</v>
       </c>
       <c r="L6" t="n">
-        <v>103568.9447103978</v>
+        <v>103534.2067849619</v>
       </c>
       <c r="M6" t="n">
-        <v>66807.88678307644</v>
+        <v>66773.14885764064</v>
       </c>
       <c r="N6" t="n">
-        <v>126918.6817384952</v>
+        <v>126918.6817384949</v>
       </c>
       <c r="O6" t="n">
         <v>146346.3997321268</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.7118084757587</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>155.711808475759</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.3487075198434</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>145.9766798920723</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>32.53867731010818</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>216.5504024437902</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>70.33547599058846</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.42861599638167</v>
+        <v>100.4808740020379</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>312.3666675263739</v>
       </c>
       <c r="D8" t="n">
-        <v>233.6440512519072</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.2315727004613</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>19.17120650996253</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>632.5879274568745</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
@@ -34211,25 +34211,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>537.7477759959929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.43465842984742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>352.6335057535151</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>529.7874664804599</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4538935348562</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>161.9999866016179</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>403.7733685816627</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
